--- a/health_backend/src/main/webapp/template/report_template.xlsx
+++ b/health_backend/src/main/webapp/template/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,21 @@
   </si>
   <si>
     <t>0.1250</t>
+  </si>
+  <si>
+    <t>2020-01-04 16:40:49</t>
+  </si>
+  <si>
+    <t>2020-01-04 16:43:31</t>
+  </si>
+  <si>
+    <t>2020-01-04 16:47:27</t>
+  </si>
+  <si>
+    <t>2020-01-04 16:57:10</t>
+  </si>
+  <si>
+    <t>2020-01-04 16:58:48</t>
   </si>
 </sst>
 </file>
@@ -337,7 +352,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -381,6 +396,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyBorder="true" applyFill="true">
@@ -717,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -835,40 +910,48 @@
       <c r="E13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" s="4"/>
+      <c r="F13" s="4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>0.375</v>
+      </c>
       <c r="H13" s="4"/>
     </row>
     <row ht="20.399999999999999" r="14" spans="5:11">
       <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="4"/>
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G14" s="4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H14" s="4"/>
     </row>
     <row ht="20.399999999999999" r="15" spans="5:11">
       <c r="E15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="4"/>
+        <v>22</v>
+      </c>
+      <c r="F15" s="4" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="G15" s="4" t="n">
+        <v>0.25</v>
+      </c>
       <c r="H15" s="4"/>
     </row>
     <row ht="20.399999999999999" r="16" spans="5:11">
       <c r="E16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="4"/>
+      <c r="F16" s="4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="4" t="n">
+        <v>0.125</v>
+      </c>
       <c r="H16" s="4"/>
     </row>
   </sheetData>

--- a/health_backend/src/main/webapp/template/report_template.xlsx
+++ b/health_backend/src/main/webapp/template/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,33 @@
   </si>
   <si>
     <t>2020-01-04 16:58:48</t>
+  </si>
+  <si>
+    <t>2020-01-05 09:49:43</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:01:18</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:04:37</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:04:53</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:17:09</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:26:10</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:30:11</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:36:54</t>
+  </si>
+  <si>
+    <t>2020-01-05 10:42:25</t>
   </si>
 </sst>
 </file>
@@ -352,7 +379,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +423,114 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
@@ -792,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>

--- a/health_backend/src/main/webapp/template/report_template.xlsx
+++ b/health_backend/src/main/webapp/template/report_template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="42">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>2020-01-05 10:42:25</t>
+  </si>
+  <si>
+    <t>2020-01-05</t>
   </si>
 </sst>
 </file>
@@ -379,7 +382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="95">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,6 +426,66 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="4" fillId="2" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="0" numFmtId="2" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" borderId="12" fillId="4" fontId="0" numFmtId="0" xfId="0">
@@ -927,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="14"/>
@@ -982,13 +1045,13 @@
         <v>3</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="20.399999999999999" r="9" spans="5:11">
@@ -996,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="20.399999999999999" r="10" spans="5:11">
@@ -1010,13 +1073,13 @@
         <v>9</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row ht="28.2" r="11" spans="5:11">
@@ -1046,10 +1109,10 @@
         <v>20</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>0.375</v>
+        <v>0.4444</v>
       </c>
       <c r="H13" s="4"/>
     </row>
@@ -1061,7 +1124,7 @@
         <v>2.0</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2222</v>
       </c>
       <c r="H14" s="4"/>
     </row>
@@ -1073,7 +1136,7 @@
         <v>2.0</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0.25</v>
+        <v>0.2222</v>
       </c>
       <c r="H15" s="4"/>
     </row>
@@ -1085,7 +1148,7 @@
         <v>1.0</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.125</v>
+        <v>0.1111</v>
       </c>
       <c r="H16" s="4"/>
     </row>
